--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>005974</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>东方红配置精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>005975</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>东方红配置精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005974</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方红配置精选混合A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005975</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方红配置精选混合C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -846,25 +976,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>80.51</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2809,14 +2896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2825,14 +2934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.19</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2841,13 +2972,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,433 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>10</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -893,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -944,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005974</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>东方红配置精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>23.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.1643</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -982,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>169106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>东方红创新优选三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0571</t>
+          <t>0.0963</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1020,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1058,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1096,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1134,36 +846,226 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0384</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,7 +1100,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1238,26 +1140,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>21.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1470</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1266,36 +1168,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0784</t>
+          <t>0.1766</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1304,36 +1206,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>015119</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>汇添富沪港深大盘价值混合D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.1766</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1342,36 +1244,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0579</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1380,36 +1282,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1418,36 +1320,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005975</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红配置精选混合C</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1456,36 +1358,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1494,36 +1396,226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1650,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1588,36 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>21.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1285</t>
+          <t>0.2506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1626,36 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0691</t>
+          <t>0.2296</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1674,22 +1766,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1702,36 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1740,36 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1788,22 +1880,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1816,36 +1908,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>012011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1972,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1910,36 +2002,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2506</t>
+          <t>0.1285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1948,36 +2040,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2296</t>
+          <t>0.0691</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1996,22 +2088,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2024,36 +2116,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2062,36 +2154,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2110,22 +2202,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2138,36 +2230,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012011</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2202,7 +2294,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2242,26 +2334,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1906</t>
+          <t>0.1470</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2270,36 +2362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1766</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2308,36 +2400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015119</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合D</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1766</t>
+          <t>0.0705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2346,36 +2438,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0579</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2384,36 +2476,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.0384</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2422,36 +2514,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>005975</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>东方红配置精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.91</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0780</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2460,36 +2552,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0715</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2498,226 +2590,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012011</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2752,7 +2654,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2782,32 +2684,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005974</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红配置精选混合A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.43</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1643</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2820,36 +2722,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>169106</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红创新优选三年定期开放混合</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0963</t>
+          <t>0.0571</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2858,36 +2760,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>80.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0876</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2896,36 +2798,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0591</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2934,32 +2836,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2972,226 +2874,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>009501</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>国寿安保高股息混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>80.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3205,144 +2917,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.4</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,328 +2297,6 @@
       </c>
       <c r="H14" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2506</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2296</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012011</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2331,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2002,36 +2361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>21.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1285</t>
+          <t>0.2506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2040,36 +2399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0691</t>
+          <t>0.2296</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2088,22 +2447,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2116,36 +2475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2154,36 +2513,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2202,22 +2561,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2230,36 +2589,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>012011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2268,6 +2627,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2627,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2911,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
+++ b/数据整理/stocks/港股/00386-中国石油化工股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -616,7 +633,1335 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1754,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2297,328 +3642,6 @@
       </c>
       <c r="H14" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2506</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2296</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012011</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +3676,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2683,36 +3706,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>21.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1285</t>
+          <t>0.2506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2721,36 +3744,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0691</t>
+          <t>0.2296</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2769,22 +3792,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2797,36 +3820,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2835,36 +3858,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2883,22 +3906,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2911,36 +3934,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>012011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2949,6 +3972,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3308,7 +4653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3590,440 +4935,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>